--- a/BUDGET 2024.xlsx
+++ b/BUDGET 2024.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Creative Cloud Files\Desktop\PERSONAL BUSINESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B34EB95-23BD-46AC-8117-220D1580B0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167838F9-1D2D-4274-A39D-11A192D605A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUOTA BASED" sheetId="23" r:id="rId1"/>
-    <sheet name="QUOTA" sheetId="17" r:id="rId2"/>
-    <sheet name="January" sheetId="19" r:id="rId3"/>
-    <sheet name="February" sheetId="25" r:id="rId4"/>
-    <sheet name="TEMPLATE" sheetId="24" r:id="rId5"/>
+    <sheet name="January" sheetId="19" r:id="rId2"/>
+    <sheet name="February" sheetId="25" r:id="rId3"/>
+    <sheet name="TEMPLATE" sheetId="24" r:id="rId4"/>
+    <sheet name="TEMPLATE (2)" sheetId="27" r:id="rId5"/>
     <sheet name="Practice" sheetId="26" r:id="rId6"/>
-    <sheet name="TEMPLATE (2)" sheetId="27" r:id="rId7"/>
+    <sheet name="QUOTA" sheetId="17" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="28" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="228">
   <si>
     <t>Month</t>
   </si>
@@ -645,39 +645,15 @@
     <t>2ND CUT OFF</t>
   </si>
   <si>
-    <t>credit gastos</t>
-  </si>
-  <si>
-    <t>cash gastos</t>
-  </si>
-  <si>
     <t>debit category</t>
   </si>
   <si>
     <t>total</t>
   </si>
   <si>
-    <t>limit</t>
-  </si>
-  <si>
-    <t>/8000</t>
-  </si>
-  <si>
     <t>Debit Expected</t>
   </si>
   <si>
-    <t>Quota</t>
-  </si>
-  <si>
-    <t>balance cash</t>
-  </si>
-  <si>
-    <t>excess cash:</t>
-  </si>
-  <si>
-    <t>this can be same</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
@@ -699,12 +675,6 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
     <t>Entertainment</t>
   </si>
   <si>
@@ -727,6 +697,36 @@
   </si>
   <si>
     <t>LIMIT</t>
+  </si>
+  <si>
+    <t>FIXED CYCLE</t>
+  </si>
+  <si>
+    <t>BALANCE CASH</t>
+  </si>
+  <si>
+    <t>EXCESS CASH:</t>
+  </si>
+  <si>
+    <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>CREDIT DEBIT</t>
+  </si>
+  <si>
+    <t>CASH DEBIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;-MONTH </t>
+  </si>
+  <si>
+    <t>QUOTA</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
     <numFmt numFmtId="169" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,8 +845,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -992,8 +1007,23 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1506,8 +1536,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1515,8 +1608,11 @@
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1840,194 +1936,265 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="25" borderId="43" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="22" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="46" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="29" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="25" borderId="47" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="23" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="44" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="27" borderId="44" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="45" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="43" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="25" borderId="43" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="10">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="8" builtinId="23"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
   </cellStyles>
   <dxfs count="47">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="[$₱-464]#,##0.00"/>
@@ -2044,6 +2211,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2344,16 +2512,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41230867-43B0-43F2-B188-CC6223C224AC}" name="Table8" displayName="Table8" ref="A2:E143" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4" headerRowCellStyle="Bad">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41230867-43B0-43F2-B188-CC6223C224AC}" name="Table8" displayName="Table8" ref="A2:E143" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowCellStyle="Check Cell">
   <autoFilter ref="A2:E143" xr:uid="{41230867-43B0-43F2-B188-CC6223C224AC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D7615E4B-559A-4B45-B67A-974850B2E511}" name="month" dataDxfId="0">
-      <calculatedColumnFormula>MONTH(Table8[[#This Row],[date]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{D7615E4B-559A-4B45-B67A-974850B2E511}" name="MONTH" dataDxfId="5">
+      <calculatedColumnFormula>MONTH(Table8[[#This Row],[DATE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FE4676DF-BCC9-42B5-9693-BA2A4FE1E7E4}" name="date" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{DF98829E-91A4-443A-97D6-2023B162EC9A}" name="DESCRIPTION" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{907944B5-3894-4B92-8DA4-72D7066A451D}" name="credit gastos" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{DD56DBB1-53D2-4AD5-A350-67913489009E}" name="cash gastos" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FE4676DF-BCC9-42B5-9693-BA2A4FE1E7E4}" name="DATE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DF98829E-91A4-443A-97D6-2023B162EC9A}" name="DESCRIPTION" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{907944B5-3894-4B92-8DA4-72D7066A451D}" name="CREDIT DEBIT" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DD56DBB1-53D2-4AD5-A350-67913489009E}" name="CASH DEBIT" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2690,31 +2858,31 @@
       <c r="B1" s="70">
         <v>5700</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="154" t="s">
         <v>101</v>
       </c>
       <c r="D1" s="102">
         <v>1000</v>
       </c>
-      <c r="E1" s="144" t="s">
+      <c r="E1" s="154" t="s">
         <v>101</v>
       </c>
       <c r="F1" s="102">
         <v>2000</v>
       </c>
-      <c r="G1" s="144" t="s">
+      <c r="G1" s="154" t="s">
         <v>101</v>
       </c>
       <c r="H1" s="106">
         <v>500</v>
       </c>
-      <c r="I1" s="146" t="s">
+      <c r="I1" s="156" t="s">
         <v>101</v>
       </c>
       <c r="J1" s="71">
         <v>500</v>
       </c>
-      <c r="K1" s="148" t="s">
+      <c r="K1" s="158" t="s">
         <v>101</v>
       </c>
       <c r="L1" s="73" t="s">
@@ -2732,27 +2900,27 @@
       <c r="B2" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="145"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="145"/>
+      <c r="E2" s="155"/>
       <c r="F2" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="145"/>
+      <c r="G2" s="155"/>
       <c r="H2" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="147"/>
+      <c r="I2" s="157"/>
       <c r="J2" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="148"/>
+      <c r="K2" s="158"/>
       <c r="L2" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="142" t="s">
+      <c r="M2" s="152" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2763,27 +2931,27 @@
       <c r="B3" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="145"/>
+      <c r="C3" s="155"/>
       <c r="D3" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="145"/>
+      <c r="E3" s="155"/>
       <c r="F3" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="145"/>
+      <c r="G3" s="155"/>
       <c r="H3" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="147"/>
+      <c r="I3" s="157"/>
       <c r="J3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="148"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="143"/>
+      <c r="M3" s="153"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
@@ -2995,778 +3163,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FB53FF-1D16-4D60-A1FC-7DC763C82DCE}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:M40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="29" customWidth="1"/>
-    <col min="8" max="8" width="17" style="32" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="35"/>
-      <c r="F1" s="156">
-        <v>2024</v>
-      </c>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="158"/>
-    </row>
-    <row r="2" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="35"/>
-      <c r="F2" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="35"/>
-      <c r="F3" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="29">
-        <v>8246</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="50">
-        <v>5460</v>
-      </c>
-      <c r="J3" s="152">
-        <f>SUM(I3+I4-L3)</f>
-        <v>-2540</v>
-      </c>
-      <c r="K3" s="51">
-        <f>SUM(G3+H3-I3)</f>
-        <v>2786</v>
-      </c>
-      <c r="L3" s="154">
-        <v>8000</v>
-      </c>
-      <c r="M3" s="134">
-        <v>45294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="67">
-        <v>2500</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="F4" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="29">
-        <v>1205</v>
-      </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="51">
-        <f>SUM(G4+H4-I4)</f>
-        <v>1205</v>
-      </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="91"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="67">
-        <v>500</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="35"/>
-      <c r="F5" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="152">
-        <f>SUM(I6+I7-L5)</f>
-        <v>-9000</v>
-      </c>
-      <c r="K5" s="51">
-        <f>SUM(G5+H5-I5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="155">
-        <v>9000</v>
-      </c>
-      <c r="M5" s="92"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="67">
-        <v>3200</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="F6" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="51">
-        <f>SUM(G6+H6-I6)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="155"/>
-      <c r="M6" s="91"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="67">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="35"/>
-      <c r="F7" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="152">
-        <f>SUM(I8+I9-L7)</f>
-        <v>-9000</v>
-      </c>
-      <c r="K7" s="51">
-        <f t="shared" ref="K7:K26" si="0">SUM(G7+H7-I7)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="154">
-        <v>9000</v>
-      </c>
-      <c r="M7" s="92"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="67">
-        <v>2000</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="35"/>
-      <c r="F8" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="154"/>
-      <c r="M8" s="93"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="98">
-        <f>SUM(B4:B8)</f>
-        <v>9200</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="35"/>
-      <c r="F9" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="152">
-        <f>SUM(I10+I11-L9)</f>
-        <v>-9000</v>
-      </c>
-      <c r="K9" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="155">
-        <v>9000</v>
-      </c>
-      <c r="M9" s="92"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="35"/>
-      <c r="F10" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="155"/>
-      <c r="M10" s="93"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="35"/>
-      <c r="F11" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="152">
-        <f>SUM(I12+I13-L11)</f>
-        <v>-9000</v>
-      </c>
-      <c r="K11" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="154">
-        <v>9000</v>
-      </c>
-      <c r="M11" s="92"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="35"/>
-      <c r="F12" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="154"/>
-      <c r="M12" s="93"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="149" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="152">
-        <f>SUM(I14+I15-L13)</f>
-        <v>-9000</v>
-      </c>
-      <c r="K13" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="155">
-        <v>9000</v>
-      </c>
-      <c r="M13" s="92"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="99">
-        <v>5700</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="116">
-        <v>2460</v>
-      </c>
-      <c r="E14" s="132">
-        <v>2500</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="155"/>
-      <c r="M14" s="93"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="66">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="118">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="152">
-        <f>SUM(I16+I17-L15)</f>
-        <v>-9000</v>
-      </c>
-      <c r="K15" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="154">
-        <v>9000</v>
-      </c>
-      <c r="M15" s="92"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="66">
-        <v>1500</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="118">
-        <v>1500</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="154"/>
-      <c r="M16" s="93"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="101">
-        <v>500</v>
-      </c>
-      <c r="C17" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="121"/>
-      <c r="F17" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="152">
-        <f>SUM(I18+I19-L17)</f>
-        <v>-9000</v>
-      </c>
-      <c r="K17" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="155">
-        <v>9000</v>
-      </c>
-      <c r="M17" s="92"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="66">
-        <v>500</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="128">
-        <v>500</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="155"/>
-      <c r="M18" s="93"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="66">
-        <v>8700</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="130">
-        <f>SUM(D14+D15+D16+D18-B19)</f>
-        <v>-3240</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="152">
-        <f>SUM(I20+I21-L19)</f>
-        <v>-9000</v>
-      </c>
-      <c r="K19" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="154">
-        <v>9000</v>
-      </c>
-      <c r="M19" s="92"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="122"/>
-      <c r="B20" s="123"/>
-      <c r="D20" s="129" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="154"/>
-      <c r="M20" s="93"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="127"/>
-      <c r="F21" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="152">
-        <f>SUM(I22+I23-L21)</f>
-        <v>-9000</v>
-      </c>
-      <c r="K21" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="155">
-        <v>9000</v>
-      </c>
-      <c r="M21" s="92"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="29"/>
-      <c r="F22" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="155"/>
-      <c r="M22" s="93"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="29"/>
-      <c r="F23" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="152">
-        <f>SUM(I24+I25-L23)</f>
-        <v>-9000</v>
-      </c>
-      <c r="K23" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="154">
-        <v>9000</v>
-      </c>
-      <c r="M23" s="92"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="29"/>
-      <c r="F24" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="154"/>
-      <c r="M24" s="93"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="29"/>
-      <c r="F25" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="152">
-        <f>SUM(I26+I27-L25)</f>
-        <v>-9000</v>
-      </c>
-      <c r="K25" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="155">
-        <v>9000</v>
-      </c>
-      <c r="M25" s="92"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="29"/>
-      <c r="F26" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="155"/>
-      <c r="M26" s="93"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="29"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="159">
-        <f>SUM(J3:J26)</f>
-        <v>-101540</v>
-      </c>
-      <c r="K27" s="57"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="63"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="29"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="63"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="29"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" s="61"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="65"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H30" s="31"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="29"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H31" s="31"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="29"/>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967382C9-56D8-4716-BD73-2D7301A0370B}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4644,10 +4040,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="162" t="s">
+      <c r="K25" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="162"/>
+      <c r="L25" s="172"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -6114,7 +5510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A30DC7-9B08-4CF6-8C62-86D056D8E323}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -6122,7 +5518,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6882,10 +6278,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="162" t="s">
+      <c r="K25" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="162"/>
+      <c r="L25" s="172"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -7538,7 +6934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA208565-B97A-4954-B47A-41DDAB90BA21}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -8238,10 +7634,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="162" t="s">
+      <c r="K25" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="162"/>
+      <c r="L25" s="172"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -8894,298 +8290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4E2705-6778-441F-A3D7-29F80EB7CC81}">
-  <dimension ref="A1:L24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" style="135" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="135" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="135" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="135" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="135" customWidth="1"/>
-    <col min="6" max="6" width="21" style="135" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="135" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="135" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="135"/>
-    <col min="10" max="10" width="14.28515625" style="135" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="135" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="135"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="138">
-        <v>8000</v>
-      </c>
-      <c r="B1" s="138">
-        <v>6000</v>
-      </c>
-      <c r="C1" s="138">
-        <v>10000</v>
-      </c>
-      <c r="D1" s="141">
-        <v>6000</v>
-      </c>
-      <c r="E1" s="138" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="138">
-        <v>20000</v>
-      </c>
-      <c r="J1" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="L1" s="135" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="136" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="140" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="136" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="136" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="136" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="135" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2" s="135">
-        <v>20000</v>
-      </c>
-      <c r="K2" s="135">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="135" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="139" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="135" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="135" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="135" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="135" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="135" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="135" t="s">
-        <v>182</v>
-      </c>
-      <c r="H4" s="135" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="139"/>
-      <c r="G5" s="135" t="s">
-        <v>183</v>
-      </c>
-      <c r="H5" s="135" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="135" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="139"/>
-      <c r="G6" s="135" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="135" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="139"/>
-      <c r="H7" s="135" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="135" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="139"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="165">
-        <f>SUM(A1+B1+D1)</f>
-        <v>20000</v>
-      </c>
-      <c r="B9" s="165"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="166"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="165"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="166"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="167" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="167"/>
-      <c r="D11" s="139"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="139"/>
-    </row>
-    <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="163" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="164"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="139"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="139"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="139"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="136" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="136" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="136" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="136" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="136" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="137" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="135" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="135" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="135" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" s="135" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="135" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="135" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="135">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="163" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="163"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="B11:C11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEFBE89-0A62-4592-A351-A03040560556}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -9885,10 +8990,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="162" t="s">
+      <c r="K25" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="162"/>
+      <c r="L25" s="172"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -10541,21 +9646,1084 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4E2705-6778-441F-A3D7-29F80EB7CC81}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="134" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="134" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="134" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="134" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="134" customWidth="1"/>
+    <col min="6" max="6" width="21" style="134" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="134" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="134" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="134"/>
+    <col min="10" max="10" width="14.28515625" style="134" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="134" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="134"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="137">
+        <v>8500</v>
+      </c>
+      <c r="B1" s="137">
+        <v>6000</v>
+      </c>
+      <c r="C1" s="137">
+        <v>10000</v>
+      </c>
+      <c r="D1" s="140">
+        <v>6000</v>
+      </c>
+      <c r="E1" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="137">
+        <v>20000</v>
+      </c>
+      <c r="J1" s="134" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="134" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="134" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="135" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="134" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="134">
+        <v>20000</v>
+      </c>
+      <c r="K2" s="134">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="134" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="134" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="134" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="138"/>
+      <c r="G5" s="134" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="134" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="138"/>
+      <c r="G6" s="134" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="138"/>
+      <c r="H7" s="134" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="134" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="138"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="175">
+        <f>SUM(A1+B1+D1)</f>
+        <v>20500</v>
+      </c>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="176"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="175"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="176"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="177" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="177"/>
+      <c r="D11" s="138"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="138"/>
+    </row>
+    <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="173" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="173"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="174"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="138"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="138"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="138"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="135" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="135" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="135" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="136" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="134" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="134" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="134" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="134" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="134" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="134">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="173" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FB53FF-1D16-4D60-A1FC-7DC763C82DCE}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="17" style="32" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="35"/>
+      <c r="F1" s="166">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="168"/>
+    </row>
+    <row r="2" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="35"/>
+      <c r="F2" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="35"/>
+      <c r="F3" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="29">
+        <v>8246</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="50">
+        <v>5460</v>
+      </c>
+      <c r="J3" s="163">
+        <f>SUM(I3+I4-L3)</f>
+        <v>-2540</v>
+      </c>
+      <c r="K3" s="51">
+        <f>SUM(G3+H3-I3)</f>
+        <v>2786</v>
+      </c>
+      <c r="L3" s="162">
+        <v>8000</v>
+      </c>
+      <c r="M3" s="133">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="67">
+        <v>2500</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="F4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="29">
+        <v>1205</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="51">
+        <f>SUM(G4+H4-I4)</f>
+        <v>1205</v>
+      </c>
+      <c r="L4" s="162"/>
+      <c r="M4" s="91"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="67">
+        <v>500</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="35"/>
+      <c r="F5" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="163">
+        <f>SUM(I6+I7-L5)</f>
+        <v>-9000</v>
+      </c>
+      <c r="K5" s="51">
+        <f>SUM(G5+H5-I5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="161">
+        <v>9000</v>
+      </c>
+      <c r="M5" s="92"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="67">
+        <v>3200</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="F6" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="51">
+        <f>SUM(G6+H6-I6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="161"/>
+      <c r="M6" s="91"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="67">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="35"/>
+      <c r="F7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="163">
+        <f>SUM(I8+I9-L7)</f>
+        <v>-9000</v>
+      </c>
+      <c r="K7" s="51">
+        <f t="shared" ref="K7:K26" si="0">SUM(G7+H7-I7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="162">
+        <v>9000</v>
+      </c>
+      <c r="M7" s="92"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="67">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="35"/>
+      <c r="F8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="162"/>
+      <c r="M8" s="93"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="98">
+        <f>SUM(B4:B8)</f>
+        <v>9200</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="35"/>
+      <c r="F9" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="163">
+        <f>SUM(I10+I11-L9)</f>
+        <v>-9000</v>
+      </c>
+      <c r="K9" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="161">
+        <v>9000</v>
+      </c>
+      <c r="M9" s="92"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="35"/>
+      <c r="F10" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="161"/>
+      <c r="M10" s="93"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="35"/>
+      <c r="F11" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="163">
+        <f>SUM(I12+I13-L11)</f>
+        <v>-9000</v>
+      </c>
+      <c r="K11" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="162">
+        <v>9000</v>
+      </c>
+      <c r="M11" s="92"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="35"/>
+      <c r="F12" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="162"/>
+      <c r="M12" s="93"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="163">
+        <f>SUM(I14+I15-L13)</f>
+        <v>-9000</v>
+      </c>
+      <c r="K13" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="161">
+        <v>9000</v>
+      </c>
+      <c r="M13" s="92"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="99">
+        <v>5700</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="116">
+        <v>2460</v>
+      </c>
+      <c r="E14" s="132">
+        <v>2500</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="161"/>
+      <c r="M14" s="93"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="66">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="118">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="163">
+        <f>SUM(I16+I17-L15)</f>
+        <v>-9000</v>
+      </c>
+      <c r="K15" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="162">
+        <v>9000</v>
+      </c>
+      <c r="M15" s="92"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="66">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="118">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="162"/>
+      <c r="M16" s="93"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="101">
+        <v>500</v>
+      </c>
+      <c r="C17" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="121"/>
+      <c r="F17" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="163">
+        <f>SUM(I18+I19-L17)</f>
+        <v>-9000</v>
+      </c>
+      <c r="K17" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="161">
+        <v>9000</v>
+      </c>
+      <c r="M17" s="92"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="117" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="66">
+        <v>500</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="128">
+        <v>500</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="161"/>
+      <c r="M18" s="93"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="66">
+        <v>8700</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="130">
+        <f>SUM(D14+D15+D16+D18-B19)</f>
+        <v>-3240</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="163">
+        <f>SUM(I20+I21-L19)</f>
+        <v>-9000</v>
+      </c>
+      <c r="K19" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="162">
+        <v>9000</v>
+      </c>
+      <c r="M19" s="92"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="122"/>
+      <c r="B20" s="123"/>
+      <c r="D20" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="162"/>
+      <c r="M20" s="93"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="124"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="F21" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="163">
+        <f>SUM(I22+I23-L21)</f>
+        <v>-9000</v>
+      </c>
+      <c r="K21" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="161">
+        <v>9000</v>
+      </c>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="29"/>
+      <c r="F22" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="161"/>
+      <c r="M22" s="93"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="29"/>
+      <c r="F23" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="163">
+        <f>SUM(I24+I25-L23)</f>
+        <v>-9000</v>
+      </c>
+      <c r="K23" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="162">
+        <v>9000</v>
+      </c>
+      <c r="M23" s="92"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="29"/>
+      <c r="F24" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="162"/>
+      <c r="M24" s="93"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="29"/>
+      <c r="F25" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="163">
+        <f>SUM(I26+I27-L25)</f>
+        <v>-9000</v>
+      </c>
+      <c r="K25" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="161">
+        <v>9000</v>
+      </c>
+      <c r="M25" s="92"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="29"/>
+      <c r="F26" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="161"/>
+      <c r="M26" s="93"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="29"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="159">
+        <f>SUM(J3:J26)</f>
+        <v>-101540</v>
+      </c>
+      <c r="K27" s="57"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="63"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="29"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="63"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="29"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="61"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="65"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="31"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H31" s="31"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F272E2F-E2B0-47A2-BF58-42FC76E6AC48}">
   <dimension ref="A1:R143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="181" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="181" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="146" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="146" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="13" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" style="13" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" style="13" customWidth="1"/>
@@ -10564,1319 +10732,1389 @@
     <col min="11" max="11" width="15" style="13" customWidth="1"/>
     <col min="12" max="12" width="13.140625" style="13" customWidth="1"/>
     <col min="13" max="13" width="17" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="13"/>
+    <col min="14" max="14" width="9.140625" style="142"/>
+    <col min="15" max="15" width="12.5703125" style="146" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="181"/>
-      <c r="F1" s="13">
+    <row r="1" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="146"/>
+      <c r="F1" s="206">
         <v>2</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="133">
+      <c r="G1" s="207" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="208"/>
+      <c r="K1" s="209" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="R1" s="141"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="204" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="204" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="204" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="205" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="149" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="149" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="149" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" s="188" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="151">
         <v>6000</v>
       </c>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173">
+      <c r="L2" s="212"/>
+      <c r="M2" s="151">
         <v>6000</v>
       </c>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="170"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="179" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="179" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="182" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="182" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="185" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="185" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="185" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="185" t="s">
-        <v>222</v>
-      </c>
-      <c r="J2" s="186" t="s">
-        <v>227</v>
-      </c>
-      <c r="K2" s="133"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="169"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="N2" s="213"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="R2" s="141"/>
+    </row>
+    <row r="3" spans="1:18" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>2</v>
       </c>
-      <c r="B3" s="184">
+      <c r="B3" s="148">
         <v>45324</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="135"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="176" t="s">
-        <v>212</v>
-      </c>
-      <c r="L3" s="177" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" s="177" t="s">
-        <v>214</v>
-      </c>
-      <c r="N3" s="177" t="s">
-        <v>213</v>
-      </c>
-      <c r="O3" s="177" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="134"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="144" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="144" t="s">
+        <v>206</v>
+      </c>
+      <c r="N3" s="145" t="s">
+        <v>205</v>
+      </c>
+      <c r="O3" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="P3" s="178" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q3" s="169"/>
+      <c r="P3" s="181" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q3" s="144" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="141"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="184"/>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="148"/>
       <c r="F4" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="181">
+        <v>210</v>
+      </c>
+      <c r="G4" s="146">
         <f>SUM(H4+I4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="181">
+      <c r="H4" s="146">
         <f>SUMIFS(D:D,A:A,$F$1,C:C,F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="181">
+      <c r="I4" s="146">
         <f>SUMIFS(E:E,A:A,$F$1,C:C,F4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="187">
-        <v>3000</v>
-      </c>
-      <c r="K4" s="133"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="183">
-        <v>45323</v>
-      </c>
-      <c r="O4" s="173">
-        <v>431</v>
-      </c>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="169"/>
+      <c r="J4" s="190">
+        <v>2000</v>
+      </c>
+      <c r="K4" s="186"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="180">
+        <v>8246</v>
+      </c>
+      <c r="P4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4" s="147">
+        <v>45324</v>
+      </c>
+      <c r="R4" s="141"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="184"/>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="148"/>
       <c r="F5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="181">
+      <c r="G5" s="146">
         <f t="shared" ref="G5:G8" si="0">SUM(H5+I5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="181">
+      <c r="H5" s="146">
         <f t="shared" ref="H5:H8" si="1">SUMIFS(D:D,A:A,$F$1,C:C,F5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="181">
+      <c r="I5" s="146">
         <f t="shared" ref="I5:I8" si="2">SUMIFS(E:E,A:A,$F$1,C:C,F5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="187">
+      <c r="J5" s="190">
         <v>1000</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="183">
+      <c r="K5" s="186"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="180">
+        <v>100</v>
+      </c>
+      <c r="P5" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q5" s="147">
         <v>45325</v>
       </c>
-      <c r="O5" s="173">
-        <v>123</v>
-      </c>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="169"/>
+      <c r="R5" s="141"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="184"/>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="148"/>
       <c r="F6" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G6" s="181">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="181">
+        <v>216</v>
+      </c>
+      <c r="G6" s="146">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="181">
+      <c r="I6" s="146">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6" s="187">
+      <c r="J6" s="190">
         <v>2000</v>
       </c>
-      <c r="K6" s="133"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="169"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="180"/>
+      <c r="R6" s="141"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="184"/>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="148"/>
       <c r="F7" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="181">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="181">
+        <v>214</v>
+      </c>
+      <c r="G7" s="146">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="181">
+      <c r="I7" s="146">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="187">
+      <c r="J7" s="190">
         <v>1000</v>
       </c>
-      <c r="K7" s="133"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173">
-        <v>4213</v>
-      </c>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="169"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="180"/>
+      <c r="R7" s="141"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="184"/>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="148"/>
       <c r="F8" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G8" s="181">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="181">
+        <v>215</v>
+      </c>
+      <c r="G8" s="146">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="181">
+      <c r="I8" s="146">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J8" s="187">
+      <c r="J8" s="190">
         <v>2000</v>
       </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="169"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="180"/>
+      <c r="R8" s="141"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B9" s="184"/>
-      <c r="G9" s="188"/>
-      <c r="H9" s="189">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="148"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="150">
         <f>SUM(H3:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="189">
+      <c r="I9" s="150">
         <f>SUM(I3:I8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="190">
+      <c r="J9" s="191">
         <f>SUM(J3:J8)</f>
-        <v>9000</v>
-      </c>
-      <c r="K9" s="133"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="169"/>
+        <v>8000</v>
+      </c>
+      <c r="K9" s="186"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="180"/>
+      <c r="R9" s="141"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B10" s="184"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181" t="s">
-        <v>206</v>
-      </c>
-      <c r="K10" s="133"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="173"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="169"/>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="148"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="192" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="186"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="180"/>
+      <c r="R10" s="141"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B11" s="184"/>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="148"/>
       <c r="F11" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="135" t="s">
-        <v>210</v>
+        <v>219</v>
+      </c>
+      <c r="G11" s="180">
+        <f>SUM(H24-J9)</f>
+        <v>346</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="K11" s="171"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="174"/>
-      <c r="Q11" s="169"/>
+        <v>203</v>
+      </c>
+      <c r="J11" s="187"/>
+      <c r="K11" s="179"/>
+      <c r="R11" s="141"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B12" s="184"/>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B12" s="148"/>
       <c r="F12" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" s="135"/>
-      <c r="H12" s="181">
+        <v>220</v>
+      </c>
+      <c r="H12" s="146">
         <v>2000</v>
       </c>
-      <c r="K12" s="171"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="174"/>
-      <c r="Q12" s="169"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="179"/>
+      <c r="R12" s="141"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B13" s="184"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="172"/>
-      <c r="N13" s="172"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="169"/>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="148"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="179"/>
+      <c r="R13" s="141"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B14" s="184"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="172"/>
-      <c r="N14" s="172"/>
-      <c r="O14" s="172"/>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="169"/>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="148"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="179"/>
+      <c r="R14" s="141"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B15" s="184"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="172"/>
-      <c r="M15" s="172"/>
-      <c r="N15" s="172"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="169"/>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B15" s="148"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="179"/>
+      <c r="R15" s="141"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B16" s="184"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="172"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="174"/>
-      <c r="Q16" s="169"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="148"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="179"/>
+      <c r="R16" s="141"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="171"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="174"/>
-      <c r="Q17" s="169"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="179"/>
+      <c r="J17" s="187"/>
+      <c r="R17" s="141"/>
+    </row>
+    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="I18" s="13" t="s">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="204" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="204" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="171"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="174"/>
-      <c r="Q18" s="169"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J18" s="187"/>
+      <c r="R18" s="141"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G19" s="181">
+        <v>91</v>
+      </c>
+      <c r="G19" s="182">
         <f>SUM(H19+I19)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="171"/>
-      <c r="K19" s="172"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="174"/>
-      <c r="Q19" s="169"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H19" s="182">
+        <f>SUM(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="183">
+        <f>SUM(E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="187"/>
+      <c r="R19" s="141"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
       <c r="F20" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="182">
+        <f>SUM(G21-G19)</f>
+        <v>8000</v>
+      </c>
+      <c r="H20" s="182">
+        <f>SUM(H21-H19)</f>
+        <v>4000</v>
+      </c>
+      <c r="I20" s="182">
+        <f>SUM(I21-I19)</f>
+        <v>4000</v>
+      </c>
+      <c r="J20" s="187"/>
+      <c r="R20" s="141"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="182">
+        <v>8000</v>
+      </c>
+      <c r="H21" s="182">
+        <f>SUM(J9/2)</f>
+        <v>4000</v>
+      </c>
+      <c r="I21" s="182">
+        <f>SUM(J9/2)</f>
+        <v>4000</v>
+      </c>
+      <c r="J21" s="187"/>
+      <c r="R21" s="141"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="187"/>
+      <c r="R22" s="141"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" s="184">
+        <f>SUM(G19+H19+I19)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="187"/>
+      <c r="R23" s="141"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="185">
+        <f>SUM(J9+K2+M2)</f>
+        <v>20000</v>
+      </c>
+      <c r="H24" s="182">
+        <f>SUM(O:O)</f>
+        <v>8346</v>
+      </c>
+      <c r="I24" s="183"/>
+      <c r="J24" s="187"/>
+      <c r="R24" s="141"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="182" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" s="187"/>
+      <c r="R25" s="141"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="182"/>
+      <c r="H26" s="182"/>
+      <c r="J26" s="187"/>
+      <c r="R26" s="141"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="179"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="203" t="s">
         <v>218</v>
       </c>
-      <c r="G20" s="13">
-        <f>G21-G19</f>
-        <v>10000</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="J20" s="171"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="172"/>
-      <c r="O20" s="174"/>
-      <c r="Q20" s="169"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="13">
-        <v>10000</v>
-      </c>
-      <c r="H21" s="13">
-        <v>8000</v>
-      </c>
-      <c r="I21" s="13">
-        <v>8000</v>
-      </c>
-      <c r="J21" s="171"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="174"/>
-      <c r="Q21" s="169"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="171"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="172"/>
-      <c r="M22" s="172"/>
-      <c r="N22" s="172"/>
-      <c r="O22" s="174"/>
-      <c r="Q22" s="169"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="G23" s="168">
-        <f>SUM(G19+H19+I19)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="168"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="172"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="172"/>
-      <c r="O23" s="174"/>
-      <c r="Q23" s="169"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G24" s="170">
-        <v>20000</v>
-      </c>
-      <c r="J24" s="171"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="174"/>
-      <c r="Q24" s="169"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="J25" s="171"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="174"/>
-      <c r="Q25" s="169"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="J26" s="171"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="172"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="172"/>
-      <c r="O26" s="174"/>
-      <c r="Q26" s="169"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="J27" s="171"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="172"/>
-      <c r="M27" s="172"/>
-      <c r="N27" s="172"/>
-      <c r="O27" s="174"/>
-      <c r="Q27" s="169"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="203"/>
+      <c r="M27" s="203"/>
+      <c r="N27" s="203"/>
+      <c r="O27" s="203"/>
+      <c r="Q27" s="203"/>
+      <c r="R27" s="141"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="169"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="193" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="194"/>
+      <c r="H28" s="195"/>
+      <c r="J28" s="187"/>
+      <c r="K28" s="203"/>
+      <c r="L28" s="203"/>
+      <c r="M28" s="203"/>
+      <c r="N28" s="203"/>
+      <c r="O28" s="203"/>
+      <c r="Q28" s="203"/>
+      <c r="R28" s="141"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-      <c r="Q29" s="169"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="196"/>
+      <c r="G29" s="197"/>
+      <c r="H29" s="198"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="203"/>
+      <c r="L29" s="203"/>
+      <c r="M29" s="203"/>
+      <c r="N29" s="203"/>
+      <c r="O29" s="203"/>
+      <c r="Q29" s="203"/>
+      <c r="R29" s="141"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="196"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="198"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="203"/>
+      <c r="L30" s="203"/>
+      <c r="M30" s="203"/>
+      <c r="N30" s="203"/>
+      <c r="O30" s="203"/>
+      <c r="Q30" s="203"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="196"/>
+      <c r="G31" s="197"/>
+      <c r="H31" s="198"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="203"/>
+      <c r="L31" s="203"/>
+      <c r="M31" s="203"/>
+      <c r="N31" s="203"/>
+      <c r="O31" s="203"/>
+      <c r="Q31" s="203"/>
+    </row>
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="196"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="198"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="203"/>
+      <c r="L32" s="203"/>
+      <c r="M32" s="203"/>
+      <c r="N32" s="203"/>
+      <c r="O32" s="203"/>
+      <c r="Q32" s="203"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="196"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="198"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="203"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="203"/>
+      <c r="N33" s="203"/>
+      <c r="O33" s="203"/>
+      <c r="Q33" s="203"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="196"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="198"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="203"/>
+      <c r="L34" s="203"/>
+      <c r="M34" s="203"/>
+      <c r="N34" s="203"/>
+      <c r="O34" s="203"/>
+      <c r="Q34" s="203"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="196"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="198"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="203"/>
+      <c r="L35" s="203"/>
+      <c r="M35" s="203"/>
+      <c r="N35" s="203"/>
+      <c r="O35" s="203"/>
+      <c r="Q35" s="203"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="196"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="198"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="203"/>
+      <c r="L36" s="203"/>
+      <c r="M36" s="203"/>
+      <c r="N36" s="203"/>
+      <c r="O36" s="203"/>
+      <c r="Q36" s="203"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F37" s="196"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="198"/>
+      <c r="K37" s="202"/>
+      <c r="L37" s="203"/>
+      <c r="M37" s="203"/>
+      <c r="N37" s="203"/>
+      <c r="O37" s="203"/>
+      <c r="Q37" s="203"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="199"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="201"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="13">
-        <f>MONTH(Table8[[#This Row],[date]])</f>
+        <f>MONTH(Table8[[#This Row],[DATE]])</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="G23:I23"/>
+    <mergeCell ref="F28:H38"/>
   </mergeCells>
   <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="4000"/>
@@ -11890,7 +12128,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1000"/>
@@ -11899,8 +12137,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2000"/>
+        <color theme="0"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1000"/>
@@ -11910,7 +12158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2000"/>
@@ -11919,34 +12167,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2000"/>
-        <color theme="0"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
+        <cfvo type="num" val="20000"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{35BCE425-09BC-4941-8A5E-1615D9AAC337}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57:B1048576" xr:uid="{E00957D9-DE6E-4945-AD5D-4538DD4BB6DA}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57:B1048576" xr:uid="{08C43F62-495D-41B7-88B5-7B426AA1FBBA}">
       <formula1>$F$4:$F$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{82A258C3-E9B8-4C6E-82D1-28D518C86B8D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{047B0A37-D058-45D6-A74D-8D477101EA6A}">
       <formula1>"Entertainment, Transportation, Needs/Food, Family, Tax/Benefits"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Over Budget" sqref="D4" xr:uid="{2F2EC909-9DA4-4076-9BEA-3899D7E2F2CB}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Over Budget" sqref="D4" xr:uid="{FD7688B7-BE72-4AE4-94FD-88C8930FB151}">
       <formula1>C:C&lt;#REF!</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Over Budget" sqref="D37:D56" xr:uid="{607E4E53-6E31-48DA-984A-65469A1BE652}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Over Budget" sqref="D37:D56" xr:uid="{D21EDE11-CE05-4D3E-998B-2B87D232F924}">
       <formula1>C:C&lt;F57</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Over Budget" sqref="C1 D5:D36 D1:D2" xr:uid="{8DB1F066-96E0-4C60-ADD5-BEB34BA75557}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Over Budget" sqref="C1 D6:D36 D1:D2" xr:uid="{4D8391A7-2567-4C93-BFC8-63154F6BFB74}">
       <formula1>B:B&lt;F21</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Over Budget" sqref="D3" xr:uid="{BF02B85E-8D33-465B-979F-180F5C22AA6C}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Over Budget" sqref="D5" xr:uid="{6371499D-444D-4737-B5E4-E1BDEBA01153}">
+      <formula1>C:C&lt;H25</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Over Budget" sqref="D3" xr:uid="{F9F9FFE3-DC3F-4504-BEF1-38D5F0A1B708}">
       <formula1>C:C&lt;G24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P1048576" xr:uid="{A1BAAD65-D480-4C2D-B283-A87D14941B3E}">
+      <formula1>"Balance, Salary, Family, Others"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11971,6 +12229,21 @@
           </x14:cfRule>
           <xm:sqref>G4</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{35BCE425-09BC-4941-8A5E-1615D9AAC337}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>20000</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H24</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
